--- a/9/1/1/2/Mensual 2009 a 2021 - Mensual.xlsx
+++ b/9/1/1/2/Mensual 2009 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t>Serie</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -806,7 +809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4400,6 +4403,32 @@
         <v>6975.5</v>
       </c>
     </row>
+    <row r="139" spans="1:8">
+      <c r="A139" t="s">
+        <v>145</v>
+      </c>
+      <c r="B139">
+        <v>15939.2</v>
+      </c>
+      <c r="C139">
+        <v>9030.700000000001</v>
+      </c>
+      <c r="D139">
+        <v>8258.799999999999</v>
+      </c>
+      <c r="E139">
+        <v>771.9</v>
+      </c>
+      <c r="F139">
+        <v>709.4</v>
+      </c>
+      <c r="G139">
+        <v>62.5</v>
+      </c>
+      <c r="H139">
+        <v>6908.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/9/1/1/2/Mensual 2009 a 2021 - Mensual.xlsx
+++ b/9/1/1/2/Mensual 2009 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>Serie</t>
   </si>
@@ -452,6 +452,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -809,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H139"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4429,6 +4432,32 @@
         <v>6908.6</v>
       </c>
     </row>
+    <row r="140" spans="1:8">
+      <c r="A140" t="s">
+        <v>146</v>
+      </c>
+      <c r="B140">
+        <v>15952.4</v>
+      </c>
+      <c r="C140">
+        <v>9111.1</v>
+      </c>
+      <c r="D140">
+        <v>8345.200000000001</v>
+      </c>
+      <c r="E140">
+        <v>765.8</v>
+      </c>
+      <c r="F140">
+        <v>703.8</v>
+      </c>
+      <c r="G140">
+        <v>62.1</v>
+      </c>
+      <c r="H140">
+        <v>6841.3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
